--- a/csv/model/CIMS_FIC/formula_CIMS_FIC_ON.xlsx
+++ b/csv/model/CIMS_FIC/formula_CIMS_FIC_ON.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\xCIMS\cims-models\csv\model\CIMS_FIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70E4B3BC-2745-4488-97A1-C8EC045181D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{342F3507-A9F0-4BFA-AE32-578812364FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5B6CB1D6-B675-4D22-B7A8-AE0F9CBDEBFF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{49C170F3-D555-4F75-983E-65CBAB59D912}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>CIMS.CAN.ON.Natural Gas Production.Natural Gas Supply.Processing.Processing Plants</t>
+    <t>CIMS.CAN.ON.Natural Gas Production.Supply.Processing.Processing Plants</t>
   </si>
   <si>
     <t>ON</t>
@@ -101,7 +101,7 @@
     <t>$</t>
   </si>
   <si>
-    <t>CIMS.CAN.ON.Natural Gas Production.Natural Gas Supply.Transmission</t>
+    <t>CIMS.CAN.ON.Natural Gas Production.Supply.Transmission</t>
   </si>
   <si>
     <t>Transmission</t>
@@ -110,7 +110,7 @@
     <t>Transmission HFO</t>
   </si>
   <si>
-    <t>CIMS.CAN.ON.Natural Gas Production.Natural Gas Supply.Direct Drive Small</t>
+    <t>CIMS.CAN.ON.Natural Gas Production.Supply.Direct Drive Small</t>
   </si>
   <si>
     <t>Direct Drive Small</t>
@@ -125,7 +125,7 @@
     <t>Reciprocating compressor electric</t>
   </si>
   <si>
-    <t>CIMS.CAN.ON.Natural Gas Production.Natural Gas Supply.Direct Drive Large</t>
+    <t>CIMS.CAN.ON.Natural Gas Production.Supply.Direct Drive Large</t>
   </si>
   <si>
     <t>Direct Drive Large</t>
@@ -140,7 +140,7 @@
     <t>Eff AC motor 500 hp</t>
   </si>
   <si>
-    <t>CIMS.CAN.ON.Natural Gas Production.Natural Gas Supply.Flaring</t>
+    <t>CIMS.CAN.ON.Natural Gas Production.Supply.Flaring</t>
   </si>
   <si>
     <t>Flaring</t>
@@ -149,7 +149,7 @@
     <t>No CCS</t>
   </si>
   <si>
-    <t>CIMS.CAN.ON.Natural Gas Production.Natural Gas Supply.Venting.Point Venting</t>
+    <t>CIMS.CAN.ON.Natural Gas Production.Supply.Venting.Point Venting</t>
   </si>
   <si>
     <t>Point Venting</t>
@@ -170,7 +170,7 @@
     <t>Ethanol</t>
   </si>
   <si>
-    <t>CIMS.CAN.ON.Natural Gas Production.Natural Gas Supply.Extraction.Off road transport</t>
+    <t>CIMS.CAN.ON.Natural Gas Production.Supply.Extraction.Off road transport</t>
   </si>
   <si>
     <t>Off road transport</t>
@@ -1906,7 +1906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2347BFD-8B4F-45E4-9F33-B086B4AEF471}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31883EF-B3DE-4D8F-B996-3F031792BC28}">
   <dimension ref="A1:X387"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
